--- a/ICS/Curtailment.xlsx
+++ b/ICS/Curtailment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rosenberg\Work\USU\Research\ColoradoRiver\RCode\ColoradoRiverFutures\ICS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D65FFCB-7653-489D-BE56-5B2D70DD1365}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3A2D85-3863-48C7-BC99-CA6A2A6D8CB3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6640" activeTab="3" xr2:uid="{BB94B92A-C8EF-4BFC-A8C8-F3C66B3235F7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6640" xr2:uid="{BB94B92A-C8EF-4BFC-A8C8-F3C66B3235F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Curtailment" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>2010 to 2019</t>
   </si>
@@ -132,17 +132,57 @@
     <t>E. Mohave / Havasu evaporation and &amp; ET</t>
   </si>
   <si>
-    <t>F. Available water to Lower Basin (A + B - C - D - E)</t>
+    <t>Mead Elev (ft)</t>
+  </si>
+  <si>
+    <t>Mead Vol (maf)</t>
+  </si>
+  <si>
+    <t>LB Cutback (maf/year)</t>
+  </si>
+  <si>
+    <t>MX Cutback</t>
+  </si>
+  <si>
+    <t>Total Cutback (maf/year)</t>
+  </si>
+  <si>
+    <t>Drought Contingency Plan Schedule</t>
+  </si>
+  <si>
+    <t>F. Mead to Imperial interveneing flow</t>
+  </si>
+  <si>
+    <t>G. Available water to Lower Basin (A + B - C - D - E + F)</t>
+  </si>
+  <si>
+    <t>H. Lower Basin water allocation</t>
+  </si>
+  <si>
+    <t>Level (feet)</t>
+  </si>
+  <si>
+    <t>Volume (maf)</t>
+  </si>
+  <si>
+    <t>K. Lake Mead volume where inflows blaance outflows (maf)</t>
+  </si>
+  <si>
+    <t>J. Lake Mead level where inflows balance outflows(feet)</t>
+  </si>
+  <si>
+    <t>I. Lower Basin cutback (H - G)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -182,7 +222,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -205,12 +245,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -246,17 +297,40 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -296,9 +370,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14967016425683879"/>
+          <c:x val="0.11546893913583017"/>
           <c:y val="3.2282411196777369E-2"/>
-          <c:w val="0.80451564986443636"/>
+          <c:w val="0.83871689021723506"/>
           <c:h val="0.87965543974392979"/>
         </c:manualLayout>
       </c:layout>
@@ -1234,7 +1308,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3562,10 +3636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96D20514-3706-4FB6-85B8-266E69D78861}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3573,7 +3647,7 @@
     <col min="1" max="1" width="12.1796875" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="11.81640625" customWidth="1"/>
-    <col min="4" max="4" width="9.36328125" customWidth="1"/>
+    <col min="4" max="4" width="13.08984375" customWidth="1"/>
     <col min="5" max="5" width="13.6328125" customWidth="1"/>
     <col min="6" max="6" width="11.54296875" customWidth="1"/>
   </cols>
@@ -3586,7 +3660,7 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="16"/>
     </row>
-    <row r="3" spans="1:5" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -3597,10 +3671,10 @@
         <v>6</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -3613,13 +3687,13 @@
       <c r="C4" s="1">
         <v>13.4</v>
       </c>
-      <c r="D4" s="1">
-        <f>MAX(0,C4-E4)</f>
-        <v>5.15</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="D4" s="2">
         <f>IF(C4&gt;7.5+0.75,7.5+0.75,C4)</f>
         <v>8.25</v>
+      </c>
+      <c r="E4" s="1">
+        <f>MAX(0,C4-D4)</f>
+        <v>5.15</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -3632,13 +3706,13 @@
       <c r="C5" s="1">
         <v>12.4</v>
       </c>
-      <c r="D5" s="1">
-        <f>MAX(0,C5-E5)</f>
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="D5" s="2">
         <f>IF(C5&gt;7.5+0.75,7.5+0.75,C5)</f>
         <v>8.25</v>
+      </c>
+      <c r="E5" s="1">
+        <f>MAX(0,C5-D5)</f>
+        <v>4.1500000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -3651,13 +3725,13 @@
       <c r="C6" s="1">
         <v>11.3</v>
       </c>
-      <c r="D6" s="1">
-        <f>MAX(0,C6-E6)</f>
-        <v>3.0500000000000007</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="D6" s="2">
         <f>IF(C6&gt;7.5+0.75,7.5+0.75,C6)</f>
         <v>8.25</v>
+      </c>
+      <c r="E6" s="1">
+        <f>MAX(0,C6-D6)</f>
+        <v>3.0500000000000007</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -3670,13 +3744,13 @@
       <c r="C7" s="1">
         <v>9.8000000000000007</v>
       </c>
-      <c r="D7" s="1">
-        <f>MAX(0,C7-E7)</f>
-        <v>1.5500000000000007</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="D7" s="2">
         <f>IF(C7&gt;7.5+0.75,7.5+0.75,C7)</f>
         <v>8.25</v>
+      </c>
+      <c r="E7" s="1">
+        <f>MAX(0,C7-D7)</f>
+        <v>1.5500000000000007</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -3695,7 +3769,7 @@
         <v>29</v>
       </c>
       <c r="E10" s="12">
-        <f>E4</f>
+        <f>D4</f>
         <v>8.25</v>
       </c>
     </row>
@@ -3733,14 +3807,286 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="11">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="10">
+        <f>E10+E11-E12-E13-E14 + E15</f>
+        <v>6.6500000000000012</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G17" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="11">
+        <v>7.5</v>
+      </c>
+      <c r="G18" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="12">
-        <f>E10+E11-E12-E13-E14</f>
-        <v>6.4500000000000011</v>
+      <c r="H18" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="L18" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="M18" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="10">
+        <f>E18-E16</f>
+        <v>0.84999999999999876</v>
+      </c>
+      <c r="G19" s="20">
+        <v>1090</v>
+      </c>
+      <c r="H19" s="21">
+        <v>10.857008</v>
+      </c>
+      <c r="I19" s="1">
+        <f>K19-J19</f>
+        <v>0.3</v>
+      </c>
+      <c r="J19" s="18"/>
+      <c r="K19" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="L19" s="23">
+        <f>G19</f>
+        <v>1090</v>
+      </c>
+      <c r="M19" s="24">
+        <f>H19</f>
+        <v>10.857008</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="15">
+        <f>VLOOKUP($E$19,$I$19:$M$26,4)</f>
+        <v>1050</v>
+      </c>
+      <c r="G20" s="20">
+        <v>1075</v>
+      </c>
+      <c r="H20" s="21">
+        <v>9.6009879999900001</v>
+      </c>
+      <c r="I20" s="1">
+        <f>K20-J20</f>
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="J20" s="25">
+        <v>0.05</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="L20" s="23">
+        <f t="shared" ref="L20:L26" si="0">G20</f>
+        <v>1075</v>
+      </c>
+      <c r="M20" s="24">
+        <f t="shared" ref="M20:M26" si="1">H20</f>
+        <v>9.6009879999900001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="26">
+        <f>VLOOKUP($E$19,$I$19:$M$26,5)</f>
+        <v>7.6828779999999997</v>
+      </c>
+      <c r="G21" s="20">
+        <v>1050</v>
+      </c>
+      <c r="H21" s="21">
+        <v>7.6828779999999997</v>
+      </c>
+      <c r="I21" s="1">
+        <f>K21-J21</f>
+        <v>0.71700000000000008</v>
+      </c>
+      <c r="J21" s="25">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="L21" s="23">
+        <f t="shared" si="0"/>
+        <v>1050</v>
+      </c>
+      <c r="M21" s="24">
+        <f t="shared" si="1"/>
+        <v>7.6828779999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G22" s="20">
+        <v>1045</v>
+      </c>
+      <c r="H22" s="21">
+        <v>7.3260519999999998</v>
+      </c>
+      <c r="I22" s="1">
+        <f>K22-J22</f>
+        <v>0.96699999999999986</v>
+      </c>
+      <c r="J22" s="25">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1.0369999999999999</v>
+      </c>
+      <c r="L22" s="23">
+        <f t="shared" si="0"/>
+        <v>1045</v>
+      </c>
+      <c r="M22" s="24">
+        <f t="shared" si="1"/>
+        <v>7.3260519999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G23" s="20">
+        <v>1040</v>
+      </c>
+      <c r="H23" s="21">
+        <v>6.977665</v>
+      </c>
+      <c r="I23" s="1">
+        <f>K23-J23</f>
+        <v>1.0169999999999999</v>
+      </c>
+      <c r="J23" s="25">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K23" s="1">
+        <v>1.087</v>
+      </c>
+      <c r="L23" s="23">
+        <f t="shared" si="0"/>
+        <v>1040</v>
+      </c>
+      <c r="M23" s="24">
+        <f t="shared" si="1"/>
+        <v>6.977665</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G24" s="20">
+        <v>1035</v>
+      </c>
+      <c r="H24" s="21">
+        <v>6.6375080000000004</v>
+      </c>
+      <c r="I24" s="1">
+        <f>K24-J24</f>
+        <v>1.0669999999999999</v>
+      </c>
+      <c r="J24" s="25">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1.137</v>
+      </c>
+      <c r="L24" s="23">
+        <f t="shared" si="0"/>
+        <v>1035</v>
+      </c>
+      <c r="M24" s="24">
+        <f t="shared" si="1"/>
+        <v>6.6375080000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G25" s="20">
+        <v>1030</v>
+      </c>
+      <c r="H25" s="21">
+        <v>6.305377</v>
+      </c>
+      <c r="I25" s="1">
+        <f>K25-J25</f>
+        <v>1.117</v>
+      </c>
+      <c r="J25" s="25">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1.1870000000000001</v>
+      </c>
+      <c r="L25" s="23">
+        <f t="shared" si="0"/>
+        <v>1030</v>
+      </c>
+      <c r="M25" s="24">
+        <f t="shared" si="1"/>
+        <v>6.305377</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G26" s="20">
+        <v>1025</v>
+      </c>
+      <c r="H26" s="21">
+        <v>5.981122</v>
+      </c>
+      <c r="I26" s="1">
+        <f>K26-J26</f>
+        <v>1.2</v>
+      </c>
+      <c r="J26" s="25">
+        <v>0.125</v>
+      </c>
+      <c r="K26" s="1">
+        <v>1.325</v>
+      </c>
+      <c r="L26" s="23">
+        <f t="shared" si="0"/>
+        <v>1025</v>
+      </c>
+      <c r="M26" s="24">
+        <f t="shared" si="1"/>
+        <v>5.981122</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="G19:K26">
+    <sortCondition ref="I19:I26"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3750,7 +4096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029FAB00-0168-4CAE-B73F-AB81DA5737F2}">
   <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -3835,11 +4181,11 @@
         <v>18358969</v>
       </c>
       <c r="E3" s="10">
-        <f t="shared" ref="E3:E59" si="0">D3/1000000</f>
+        <f t="shared" ref="E3:E57" si="0">D3/1000000</f>
         <v>18.358968999999998</v>
       </c>
       <c r="F3" s="10">
-        <f t="shared" ref="F3:F59" si="1">E3-B3</f>
+        <f t="shared" ref="F3:F57" si="1">E3-B3</f>
         <v>3.3129689999999989</v>
       </c>
       <c r="G3" s="10"/>
@@ -4031,7 +4377,7 @@
         <v>8.7099999999999997E-2</v>
       </c>
       <c r="I10" s="10">
-        <f t="shared" ref="I10:I59" si="2">F10+H10</f>
+        <f t="shared" ref="I10:I57" si="2">F10+H10</f>
         <v>3.1565400000000001</v>
       </c>
     </row>

--- a/ICS/Curtailment.xlsx
+++ b/ICS/Curtailment.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rosenberg\Work\USU\Research\ColoradoRiver\RCode\ColoradoRiverFutures\ICS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3A2D85-3863-48C7-BC99-CA6A2A6D8CB3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6A9F2D-4694-4E33-A916-2AFC6F769914}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6640" xr2:uid="{BB94B92A-C8EF-4BFC-A8C8-F3C66B3235F7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6640" firstSheet="1" activeTab="3" xr2:uid="{BB94B92A-C8EF-4BFC-A8C8-F3C66B3235F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Curtailment" sheetId="1" r:id="rId1"/>
     <sheet name="Plot-ConsumptiveUse" sheetId="3" r:id="rId2"/>
     <sheet name="Plot-ConsumptiveUseLosses" sheetId="4" r:id="rId3"/>
-    <sheet name="UpperBasin Consumptive Use" sheetId="2" r:id="rId4"/>
+    <sheet name="Plot-NaturalUnregulated" sheetId="5" r:id="rId4"/>
+    <sheet name="UpperBasin Consumptive Use" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1977,8 +1978,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.8069324528577142E-2"/>
-              <c:y val="0.35658723338423087"/>
+              <c:x val="3.1749812951252218E-2"/>
+              <c:y val="0.17087674719489854"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2139,6 +2140,834 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.9929578244924308E-2"/>
+          <c:y val="2.152769546010027E-2"/>
+          <c:w val="0.88040810461007857"/>
+          <c:h val="0.87974884054888569"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'UpperBasin Consumptive Use'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Unregulated Inflow (maf)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'UpperBasin Consumptive Use'!$E$2:$E$59</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="58"/>
+                <c:pt idx="0">
+                  <c:v>10.381353000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.358968999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.060726000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.708544</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.338625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.452503</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.055808000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.84545</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.398440000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.271376</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.965679</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.565940999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.201164</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.4352809999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.892801</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17.609594999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.309701</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.6387119999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16.724910999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>23.729841</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>24.177980999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21.044574999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22.368445000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16.596464999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11.668810000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.5522320000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.9740110000000008</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12.344601000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11.068530000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>18.697527999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10.611249000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>19.872761000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>14.052944999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>21.184925</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>16.968572999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>16.452831</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10.541308000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>11.023149</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.870736</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10.455249</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.4432220000000004</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>17.117932</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12.627808</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>12.567529</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>16.3156</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>14.306982</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>12.326231999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>20.207163000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8.4420540000000006</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8.9732859999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>14.100669999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>13.433123999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>13.477814</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>16.476396999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>8.6142029999999998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>17.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'UpperBasin Consumptive Use'!$B$2:$B$59</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="58"/>
+                <c:pt idx="0">
+                  <c:v>7.492</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.045999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6890000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.9789999999999992</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.319000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.52</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.992000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.798</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.3290000000000006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.974</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.9700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.095000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.4309999999999992</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5289999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.058999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14.189</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.682</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.6390000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.771000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.370999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20.846</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>17.516999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18.545999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13.377000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.9889999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.9390000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.3109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.8010000000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.3520000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14.436999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.7939999999999996</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15.904999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10.401999999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>17.053000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13.52</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.9359999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.9939999999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.6429999999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.1609999999999996</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.9130000000000003</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>12.795</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8.6259999999999994</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8.7539999999999996</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>12.086</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>10.220000000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8.4260000000000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>15.971</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.9080000000000004</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.117</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>10.381</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>10.173999999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9.6159999999999997</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>11.904999999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.6120000000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>12.951000000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.8470000000000004</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6.7910000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D7BD-4228-9F76-C348C2B79E53}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>1:1 line</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="lgDash"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-D7BD-4228-9F76-C348C2B79E53}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'UpperBasin Consumptive Use'!$M$19:$N$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'UpperBasin Consumptive Use'!$M$19:$N$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D7BD-4228-9F76-C348C2B79E53}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1922199327"/>
+        <c:axId val="2023102095"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1922199327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="25"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000"/>
+                  <a:t>Natural Inflow (maf per year)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2023102095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2023102095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="25"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000"/>
+                  <a:t>Unregulated Inflow</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000"/>
+                  <a:t>(maf eper</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000" baseline="0"/>
+                  <a:t> year)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="2000"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1922199327"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2219,6 +3048,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2736,6 +3605,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3267,6 +4652,17 @@
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="76" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{292F6C87-5A69-437D-9485-8743CC210C56}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="76" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3317,6 +4713,39 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66FDE541-6215-47B7-875E-4A320995CE83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="12998824" cy="9431618"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7BAFA92-1EF5-45D1-9229-FF71E316151D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3638,8 +5067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96D20514-3706-4FB6-85B8-266E69D78861}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3871,7 +5300,7 @@
         <v>10.857008</v>
       </c>
       <c r="I19" s="1">
-        <f>K19-J19</f>
+        <f t="shared" ref="I19:I26" si="0">K19-J19</f>
         <v>0.3</v>
       </c>
       <c r="J19" s="18"/>
@@ -3902,7 +5331,7 @@
         <v>9.6009879999900001</v>
       </c>
       <c r="I20" s="1">
-        <f>K20-J20</f>
+        <f t="shared" si="0"/>
         <v>0.63300000000000001</v>
       </c>
       <c r="J20" s="25">
@@ -3912,11 +5341,11 @@
         <v>0.68300000000000005</v>
       </c>
       <c r="L20" s="23">
-        <f t="shared" ref="L20:L26" si="0">G20</f>
+        <f t="shared" ref="L20:L26" si="1">G20</f>
         <v>1075</v>
       </c>
       <c r="M20" s="24">
-        <f t="shared" ref="M20:M26" si="1">H20</f>
+        <f t="shared" ref="M20:M26" si="2">H20</f>
         <v>9.6009879999900001</v>
       </c>
     </row>
@@ -3935,7 +5364,7 @@
         <v>7.6828779999999997</v>
       </c>
       <c r="I21" s="1">
-        <f>K21-J21</f>
+        <f t="shared" si="0"/>
         <v>0.71700000000000008</v>
       </c>
       <c r="J21" s="25">
@@ -3945,11 +5374,11 @@
         <v>0.78700000000000003</v>
       </c>
       <c r="L21" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1050</v>
       </c>
       <c r="M21" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.6828779999999997</v>
       </c>
     </row>
@@ -3961,7 +5390,7 @@
         <v>7.3260519999999998</v>
       </c>
       <c r="I22" s="1">
-        <f>K22-J22</f>
+        <f t="shared" si="0"/>
         <v>0.96699999999999986</v>
       </c>
       <c r="J22" s="25">
@@ -3971,11 +5400,11 @@
         <v>1.0369999999999999</v>
       </c>
       <c r="L22" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1045</v>
       </c>
       <c r="M22" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.3260519999999998</v>
       </c>
     </row>
@@ -3987,7 +5416,7 @@
         <v>6.977665</v>
       </c>
       <c r="I23" s="1">
-        <f>K23-J23</f>
+        <f t="shared" si="0"/>
         <v>1.0169999999999999</v>
       </c>
       <c r="J23" s="25">
@@ -3997,11 +5426,11 @@
         <v>1.087</v>
       </c>
       <c r="L23" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1040</v>
       </c>
       <c r="M23" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.977665</v>
       </c>
     </row>
@@ -4013,7 +5442,7 @@
         <v>6.6375080000000004</v>
       </c>
       <c r="I24" s="1">
-        <f>K24-J24</f>
+        <f t="shared" si="0"/>
         <v>1.0669999999999999</v>
       </c>
       <c r="J24" s="25">
@@ -4023,11 +5452,11 @@
         <v>1.137</v>
       </c>
       <c r="L24" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1035</v>
       </c>
       <c r="M24" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.6375080000000004</v>
       </c>
     </row>
@@ -4039,7 +5468,7 @@
         <v>6.305377</v>
       </c>
       <c r="I25" s="1">
-        <f>K25-J25</f>
+        <f t="shared" si="0"/>
         <v>1.117</v>
       </c>
       <c r="J25" s="25">
@@ -4049,11 +5478,11 @@
         <v>1.1870000000000001</v>
       </c>
       <c r="L25" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1030</v>
       </c>
       <c r="M25" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.305377</v>
       </c>
     </row>
@@ -4065,7 +5494,7 @@
         <v>5.981122</v>
       </c>
       <c r="I26" s="1">
-        <f>K26-J26</f>
+        <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
       <c r="J26" s="25">
@@ -4075,11 +5504,11 @@
         <v>1.325</v>
       </c>
       <c r="L26" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1025</v>
       </c>
       <c r="M26" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.981122</v>
       </c>
     </row>
@@ -4094,10 +5523,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029FAB00-0168-4CAE-B73F-AB81DA5737F2}">
-  <dimension ref="A1:L59"/>
+  <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4576,7 +6005,7 @@
         <v>3.9092010000000013</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>1979</v>
       </c>
@@ -4608,7 +6037,7 @@
         <v>3.4964949999999986</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="8">
         <v>1980</v>
       </c>
@@ -4640,7 +6069,7 @@
         <v>3.709101</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>1981</v>
       </c>
@@ -4671,8 +6100,14 @@
         <f t="shared" si="2"/>
         <v>3.0813119999999996</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
         <v>1982</v>
       </c>
@@ -4704,7 +6139,7 @@
         <v>4.0406109999999975</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>1983</v>
       </c>
@@ -4736,7 +6171,7 @@
         <v>3.4539410000000017</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>1984</v>
       </c>
@@ -4768,7 +6203,7 @@
         <v>3.4251809999999989</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="8">
         <v>1985</v>
       </c>
@@ -4800,7 +6235,7 @@
         <v>3.6171749999999987</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="8">
         <v>1986</v>
       </c>
@@ -4832,7 +6267,7 @@
         <v>3.9127450000000019</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="8">
         <v>1987</v>
       </c>
@@ -4864,7 +6299,7 @@
         <v>3.310464999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="8">
         <v>1988</v>
       </c>
@@ -4896,7 +6331,7 @@
         <v>3.7650100000000006</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="8">
         <v>1989</v>
       </c>
@@ -4928,7 +6363,7 @@
         <v>3.695732</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="8">
         <v>1990</v>
       </c>
@@ -4960,7 +6395,7 @@
         <v>3.7476110000000009</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="8">
         <v>1991</v>
       </c>
@@ -4992,7 +6427,7 @@
         <v>3.6337010000000007</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="8">
         <v>1992</v>
       </c>
@@ -5024,7 +6459,7 @@
         <v>3.8042300000000004</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="8">
         <v>1993</v>
       </c>
@@ -5056,7 +6491,7 @@
         <v>4.3503279999999993</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="8">
         <v>1994</v>
       </c>
